--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_8_30.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_8_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2390787.325163057</v>
+        <v>2388242.139089771</v>
       </c>
     </row>
     <row r="7">
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>80.36913259236702</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>346.6999128968763</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -817,7 +817,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>50.43151777216858</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>101.780687729549</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>313.4020972507752</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>98.0920354687541</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>120.4120358099645</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.5968436493439</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,13 +1136,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>12.9169039459368</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>108.461101358511</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>143.6666420308606</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>132.4168693425908</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>2.454476553030459</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503955</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1658,7 +1658,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>123.9815576456779</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>113.6427030833208</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>55.52079624060383</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2649,7 +2649,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2719,19 +2719,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>27.02919805176103</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2886,7 +2886,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2953,16 +2953,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>31.8302520576399</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3123,7 +3123,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>139.5115415340516</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3329,7 +3329,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3360,7 +3360,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>123.797182079701</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3664,7 +3664,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>20.88994825141578</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>27.02919805176115</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>122.6028762599951</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4141,19 +4141,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.64725059288511</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>546.109828622464</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>546.109828622464</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>546.109828622464</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>546.109828622464</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>135.1239238328564</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4370,10 +4370,10 @@
         <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="Y2" t="n">
-        <v>546.109828622464</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4416,16 +4416,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
         <v>53.94298182036445</v>
@@ -4513,25 +4513,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X4" t="n">
-        <v>625.3202087220412</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y4" t="n">
-        <v>404.5276295785111</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2149.375138862102</v>
+        <v>1659.880644283887</v>
       </c>
       <c r="C5" t="n">
-        <v>1780.41262192169</v>
+        <v>1290.918127343475</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>1290.918127343475</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>905.1298747452308</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>898.1843739960274</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>480.2205658942142</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>153.0258459302171</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862885</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862885</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862885</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862885</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.942913862885</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X5" t="n">
-        <v>2465.942913862885</v>
+        <v>2050.019976259699</v>
       </c>
       <c r="Y5" t="n">
-        <v>2465.942913862885</v>
+        <v>1659.880644283887</v>
       </c>
     </row>
     <row r="6">
@@ -4641,19 +4641,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.1903022614629</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>325.6879402326643</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>325.6879402326643</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>175.5713008203286</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>175.5713008203286</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4750,25 +4750,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1700.549400517447</v>
+        <v>948.3796004312815</v>
       </c>
       <c r="C8" t="n">
-        <v>1331.586883577035</v>
+        <v>579.4170834908698</v>
       </c>
       <c r="D8" t="n">
-        <v>973.3211849702848</v>
+        <v>579.4170834908698</v>
       </c>
       <c r="E8" t="n">
-        <v>587.5329323720405</v>
+        <v>193.6288308926256</v>
       </c>
       <c r="F8" t="n">
-        <v>176.5470275824329</v>
+        <v>186.6833301434222</v>
       </c>
       <c r="G8" t="n">
-        <v>163.4996498592644</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="H8" t="n">
-        <v>163.4996498592644</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>242.5828808341008</v>
+        <v>75.17723181374775</v>
       </c>
       <c r="K8" t="n">
-        <v>646.0499938541462</v>
+        <v>157.7403863883401</v>
       </c>
       <c r="L8" t="n">
-        <v>1094.463253419559</v>
+        <v>710.5536446345393</v>
       </c>
       <c r="M8" t="n">
-        <v>1281.162666244967</v>
+        <v>1342.271455617851</v>
       </c>
       <c r="N8" t="n">
-        <v>1475.496879136949</v>
+        <v>1536.605668509834</v>
       </c>
       <c r="O8" t="n">
-        <v>2022.658083904027</v>
+        <v>2083.766873276911</v>
       </c>
       <c r="P8" t="n">
-        <v>2451.973130243321</v>
+        <v>2513.081919616205</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2395.816233281858</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.457387763373</v>
+        <v>2395.816233281858</v>
       </c>
       <c r="V8" t="n">
-        <v>2443.457387763373</v>
+        <v>2064.753345938287</v>
       </c>
       <c r="W8" t="n">
-        <v>2090.688732493259</v>
+        <v>1711.984690668173</v>
       </c>
       <c r="X8" t="n">
-        <v>2090.688732493259</v>
+        <v>1338.518932407093</v>
       </c>
       <c r="Y8" t="n">
-        <v>1700.549400517447</v>
+        <v>948.3796004312815</v>
       </c>
     </row>
     <row r="9">
@@ -4872,25 +4872,25 @@
         <v>338.2052143260214</v>
       </c>
       <c r="G9" t="n">
-        <v>200.7638166852433</v>
+        <v>200.7638166852434</v>
       </c>
       <c r="H9" t="n">
-        <v>99.84783883004795</v>
+        <v>99.84783883004796</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>172.6022336772601</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>478.5308710654409</v>
+        <v>121.5508014837215</v>
       </c>
       <c r="L9" t="n">
-        <v>982.8924109315594</v>
+        <v>625.9123413498401</v>
       </c>
       <c r="M9" t="n">
-        <v>1623.437760398664</v>
+        <v>1154.550102024319</v>
       </c>
       <c r="N9" t="n">
         <v>1822.094502051329</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>517.6822058285749</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>154.9909114159743</v>
@@ -4990,22 +4990,22 @@
         <v>1053.877663279709</v>
       </c>
       <c r="T10" t="n">
-        <v>1053.877663279709</v>
+        <v>828.2484665920741</v>
       </c>
       <c r="U10" t="n">
-        <v>1053.877663279709</v>
+        <v>539.096290169754</v>
       </c>
       <c r="V10" t="n">
-        <v>1053.877663279709</v>
+        <v>284.4118019638671</v>
       </c>
       <c r="W10" t="n">
-        <v>920.1232498023447</v>
+        <v>284.4118019638671</v>
       </c>
       <c r="X10" t="n">
-        <v>920.1232498023447</v>
+        <v>56.42225106584976</v>
       </c>
       <c r="Y10" t="n">
-        <v>699.3306706588146</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004712</v>
@@ -5027,10 +5027,10 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
@@ -5054,7 +5054,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5072,19 +5072,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5124,22 +5124,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>119.290296770379</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5206,43 +5206,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="14">
@@ -5264,7 +5264,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5291,7 +5291,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5358,25 +5358,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5413,22 +5413,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>216.8470138298251</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>216.8470138298251</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,25 +5510,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5595,25 +5595,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5653,16 +5653,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5732,43 +5732,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5832,25 +5832,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963485</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5887,22 +5887,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>365.9405071576781</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>219.0505596597677</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5981,28 +5981,28 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>150.8995423128888</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8243144841094</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468417</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>763.7541388327643</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="C25" t="n">
-        <v>594.8179559048574</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="D25" t="n">
-        <v>444.7013164925216</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>296.7882229101285</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>149.8982754122182</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704551</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806534</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.402603663004</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="26">
@@ -6212,40 +6212,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6303,25 +6303,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>943.5102657467552</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6367,16 +6367,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6449,40 +6449,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718727</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6622,10 +6622,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="32">
@@ -6695,31 +6695,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>634.5603720565533</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6859,10 +6859,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6935,19 +6935,19 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,7 +6956,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6965,16 +6965,16 @@
         <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
         <v>3094.515198591809</v>
@@ -7014,22 +7014,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797186</v>
+        <v>738.7889117913851</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>696.7084350851653</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>527.7722521572584</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>527.7722521572584</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E37" t="n">
-        <v>527.7722521572584</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>216.8470138298251</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797186</v>
@@ -7096,49 +7096,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038324</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797724</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570815</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.0893932798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853359</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832661</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855602</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1871.2406881998</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1616.556199993913</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1327.139029956953</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1099.149479058935</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>878.3568999154051</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406468</v>
@@ -7163,34 +7163,34 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852254</v>
@@ -7202,22 +7202,22 @@
         <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7254,25 +7254,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452619</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718135</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7312,19 +7312,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797186</v>
@@ -7333,10 +7333,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7403,13 +7403,13 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7418,10 +7418,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797186</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745237</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7549,22 +7549,22 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7646,7 +7646,7 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7655,10 +7655,10 @@
         <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>445.6984928076085</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>298.8085453096982</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>298.8085453096982</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>157.0967141518962</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8219,7 +8219,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504503</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8450,16 +8450,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>312.2066704284443</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -8471,7 +8471,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>150.5889407883052</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,19 +8529,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
-        <v>240.7280987119431</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>352.6670952725999</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>473.6238973478236</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9887,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-12</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10124,7 +10124,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>1.392663762089796e-12</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10349,13 +10349,13 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1.932676241267473e-12</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>-8.526512829121202e-13</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>46.45968844823237</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>138.4949402405078</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>18.49466557218919</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>41.54258064659093</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>34.97276993489153</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>186.7544012944549</v>
       </c>
     </row>
     <row r="32">
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>40.32043864788571</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>21.62386594323029</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>43.72409101823415</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>138.4949402405077</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>57.22910392194223</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>18.61858572568042</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>812026.1514101049</v>
+        <v>812026.1514101048</v>
       </c>
     </row>
     <row r="7">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>812026.1514101048</v>
+        <v>812026.1514101049</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>812026.1514101049</v>
+        <v>812026.1514101048</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>812026.1514101048</v>
+        <v>812026.1514101049</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="E2" t="n">
         <v>605359.9497675044</v>
@@ -26326,34 +26326,34 @@
         <v>605359.9497675042</v>
       </c>
       <c r="G2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.949767504</v>
       </c>
       <c r="H2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.949767504</v>
       </c>
       <c r="I2" t="n">
         <v>605359.949767504</v>
       </c>
       <c r="J2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="K2" t="n">
         <v>605359.9497675044</v>
       </c>
       <c r="L2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="M2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675046</v>
       </c>
       <c r="N2" t="n">
         <v>605359.9497675042</v>
       </c>
       <c r="O2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="P2" t="n">
         <v>605359.9497675041</v>
-      </c>
-      <c r="P2" t="n">
-        <v>605359.9497675044</v>
       </c>
     </row>
     <row r="3">
@@ -26369,7 +26369,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481117</v>
+        <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
         <v>771052.6913808064</v>
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925926</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080585</v>
+        <v>124208.5107080584</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,37 +26424,37 @@
         <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682752</v>
+        <v>5677.536566682751</v>
       </c>
       <c r="F4" t="n">
         <v>5677.536566682751</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682767</v>
       </c>
       <c r="H4" t="n">
-        <v>5677.536566682767</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="I4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="J4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682772</v>
       </c>
       <c r="K4" t="n">
-        <v>5677.536566682748</v>
+        <v>5677.53656668279</v>
       </c>
       <c r="L4" t="n">
-        <v>5677.536566682754</v>
+        <v>5677.536566682775</v>
       </c>
       <c r="M4" t="n">
+        <v>5677.536566682806</v>
+      </c>
+      <c r="N4" t="n">
+        <v>5677.536566682731</v>
+      </c>
+      <c r="O4" t="n">
         <v>5677.536566682744</v>
-      </c>
-      <c r="N4" t="n">
-        <v>5677.536566682745</v>
-      </c>
-      <c r="O4" t="n">
-        <v>5677.536566682745</v>
       </c>
       <c r="P4" t="n">
         <v>5677.536566682745</v>
@@ -26473,7 +26473,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>87562.04517084679</v>
+        <v>87562.0451708468</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-266968.0453427746</v>
+        <v>-266968.0453427745</v>
       </c>
       <c r="C6" t="n">
-        <v>322999.8338717698</v>
+        <v>322999.8338717696</v>
       </c>
       <c r="D6" t="n">
-        <v>167196.0277779746</v>
+        <v>167196.0277779745</v>
       </c>
       <c r="E6" t="n">
-        <v>-272492.8080038919</v>
+        <v>-272527.5459293276</v>
       </c>
       <c r="F6" t="n">
-        <v>498559.8833769144</v>
+        <v>498525.1454514787</v>
       </c>
       <c r="G6" t="n">
-        <v>498559.8833769143</v>
+        <v>498525.1454514784</v>
       </c>
       <c r="H6" t="n">
-        <v>498559.8833769144</v>
+        <v>498525.1454514784</v>
       </c>
       <c r="I6" t="n">
-        <v>498559.8833769141</v>
+        <v>498525.1454514783</v>
       </c>
       <c r="J6" t="n">
-        <v>322136.6641843216</v>
+        <v>322101.9262588861</v>
       </c>
       <c r="K6" t="n">
-        <v>498559.8833769145</v>
+        <v>498525.1454514788</v>
       </c>
       <c r="L6" t="n">
-        <v>498559.8833769145</v>
+        <v>498525.145451479</v>
       </c>
       <c r="M6" t="n">
-        <v>374351.3726688561</v>
+        <v>374316.6347434206</v>
       </c>
       <c r="N6" t="n">
-        <v>498559.8833769145</v>
+        <v>498525.1454514786</v>
       </c>
       <c r="O6" t="n">
-        <v>498559.8833769142</v>
+        <v>498525.1454514788</v>
       </c>
       <c r="P6" t="n">
-        <v>498559.8833769145</v>
+        <v>498525.1454514785</v>
       </c>
     </row>
   </sheetData>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26963,7 +26963,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209785</v>
+        <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
         <v>774.4994000036087</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26993,10 +26993,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450929</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450927</v>
+        <v>498.4210153450925</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450929</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>333.415037428428</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>23.03118778159273</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27537,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>235.8503564698092</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>123.9289676594881</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>69.33174441270535</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>53.83928077610715</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>25.00901221296671</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>22.54869530067504</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,16 +27831,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27856,13 +27856,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>10.03493953537932</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>68.98522108410538</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
@@ -28062,22 +28062,22 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>154.1061289940002</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>216.1301767990643</v>
       </c>
     </row>
     <row r="11">
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28278,7 +28278,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29515,7 +29515,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -30037,7 +30037,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30049,7 +30049,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30168,7 +30168,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>-1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31844,10 +31844,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338207</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31862,7 +31862,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32078,10 +32078,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>362.180468412921</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338207</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32096,10 +32096,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32315,19 +32315,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>454.5879800486398</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32552,7 +32552,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
@@ -32567,13 +32567,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>448.9178583921318</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>184.4971006716333</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,37 +32935,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32974,10 +32974,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33023,37 +33023,37 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>508.3747716989732</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>688.8020111197787</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33099,28 +33099,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33129,7 +33129,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33172,37 +33172,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33211,10 +33211,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,40 +33257,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>270.9716933356908</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33336,28 +33336,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33366,7 +33366,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33409,37 +33409,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33448,10 +33448,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33494,40 +33494,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>194.5189324111258</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319853</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33573,28 +33573,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33603,7 +33603,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33646,37 +33646,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33685,10 +33685,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33734,37 +33734,37 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>530.4152909475308</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33810,28 +33810,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33840,7 +33840,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,37 +33883,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33922,10 +33922,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33974,34 +33974,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>399.9031616963288</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>172.8142548092792</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34047,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34208,13 +34208,13 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>233.3139244897921</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34232,7 +34232,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,31 +34442,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>699.0496615458086</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,19 +34784,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34939,7 +34939,7 @@
         <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M5" t="n">
         <v>485.8144648060965</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,10 +35024,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,16 +35170,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K8" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L8" t="n">
-        <v>452.9426864297102</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
         <v>196.2971847393761</v>
@@ -35191,7 +35191,7 @@
         <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>247.6524856312129</v>
+        <v>185.9264357596134</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,19 +35249,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>309.018825644627</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L9" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>533.9775360348269</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O9" t="n">
         <v>161.1235481502633</v>
@@ -35416,7 +35416,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
@@ -35431,7 +35431,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,10 +35492,10 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35510,7 +35510,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35574,7 +35574,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010434</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
@@ -35653,7 +35653,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
@@ -35668,7 +35668,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,10 +35726,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>224.339029438562</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35744,10 +35744,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35963,19 +35963,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>311.9917356041954</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36215,13 +36215,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>314.9434509778015</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>57.65947400496659</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,31 +36589,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243176</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>369.8203919190991</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>546.2057666753343</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36759,19 +36759,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>132.4173135558166</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36996,19 +36996,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,31 +37063,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902966</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>55.96455263125159</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37233,19 +37233,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,31 +37300,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>399.0735788641975</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409633</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,31 +37537,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37622,28 +37622,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>261.3487819164546</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>27.13475084531527</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37707,19 +37707,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>94.75954470991793</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -37880,7 +37880,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,31 +38090,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>556.4534171013642</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>
